--- a/reports/MAFour_final_report.xlsx
+++ b/reports/MAFour_final_report.xlsx
@@ -616,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD88"/>
+  <dimension ref="A1:AD89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,7 @@
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ZONAL INTERCHANGE ON 13-06-2025</t>
+          <t>ZONAL INTERCHANGE ON 14-06-2025</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4425,302 +4425,334 @@
       <c r="AD64" s="17" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr">
+      <c r="A65" s="18" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="B65" s="19" t="inlineStr">
+        <is>
+          <t>136/148</t>
+        </is>
+      </c>
+      <c r="C65" s="22" t="n">
+        <v>41</v>
+      </c>
+      <c r="D65" s="22" t="inlineStr">
+        <is>
+          <t>31+1</t>
+        </is>
+      </c>
+      <c r="E65" s="22" t="inlineStr">
+        <is>
+          <t>16+9</t>
+        </is>
+      </c>
+      <c r="F65" s="22" t="inlineStr">
+        <is>
+          <t>7+1</t>
+        </is>
+      </c>
+      <c r="G65" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="H65" s="22" t="n"/>
+      <c r="I65" s="22" t="n"/>
+      <c r="J65" s="22" t="n"/>
+      <c r="K65" s="22" t="n"/>
+      <c r="L65" s="22" t="n"/>
+      <c r="M65" s="22" t="n"/>
+      <c r="N65" s="22" t="n"/>
+      <c r="O65" s="22" t="n"/>
+      <c r="P65" s="19" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="Q65" s="19" t="inlineStr">
+        <is>
+          <t>138/153</t>
+        </is>
+      </c>
+      <c r="R65" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="S65" s="22" t="inlineStr">
+        <is>
+          <t>12+20</t>
+        </is>
+      </c>
+      <c r="T65" s="22" t="inlineStr">
+        <is>
+          <t>17+9</t>
+        </is>
+      </c>
+      <c r="U65" s="22" t="inlineStr">
+        <is>
+          <t>1+12</t>
+        </is>
+      </c>
+      <c r="V65" s="22" t="n">
+        <v>53</v>
+      </c>
+      <c r="W65" s="22" t="n"/>
+      <c r="X65" s="22" t="n"/>
+      <c r="Y65" s="22" t="n"/>
+      <c r="Z65" s="22" t="n"/>
+      <c r="AA65" s="22" t="n"/>
+      <c r="AB65" s="22" t="n"/>
+      <c r="AC65" s="22" t="n"/>
+      <c r="AD65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t>SAUS</t>
         </is>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B66" s="7" t="inlineStr">
         <is>
           <t>8/9</t>
         </is>
       </c>
-      <c r="C65" s="8" t="n">
+      <c r="C66" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="8" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t>1+0</t>
         </is>
       </c>
-      <c r="E65" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="F66" s="8" t="inlineStr">
         <is>
           <t>3+0</t>
         </is>
       </c>
-      <c r="G65" s="8" t="n">
+      <c r="G66" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="8" t="inlineStr">
+      <c r="H66" s="8" t="inlineStr">
         <is>
           <t>DDE</t>
         </is>
       </c>
-      <c r="I65" s="8" t="n"/>
-      <c r="J65" s="8" t="inlineStr">
+      <c r="I66" s="8" t="n"/>
+      <c r="J66" s="8" t="inlineStr">
         <is>
           <t>MIHK(2)</t>
         </is>
       </c>
-      <c r="K65" s="8" t="n"/>
-      <c r="L65" s="8" t="inlineStr">
+      <c r="K66" s="8" t="n"/>
+      <c r="L66" s="8" t="inlineStr">
         <is>
           <t>UNGU</t>
         </is>
       </c>
-      <c r="M65" s="8" t="n"/>
-      <c r="N65" s="8" t="inlineStr">
+      <c r="M66" s="8" t="n"/>
+      <c r="N66" s="8" t="inlineStr">
         <is>
           <t>NMG[AGSA]</t>
         </is>
       </c>
-      <c r="O65" s="8" t="inlineStr">
+      <c r="O66" s="8" t="inlineStr">
         <is>
           <t>SHRN</t>
         </is>
       </c>
-      <c r="P65" s="7" t="inlineStr">
+      <c r="P66" s="7" t="inlineStr">
         <is>
           <t>SAUN</t>
         </is>
       </c>
-      <c r="Q65" s="7" t="inlineStr">
+      <c r="Q66" s="7" t="inlineStr">
         <is>
           <t>4/4</t>
         </is>
       </c>
-      <c r="R65" s="8" t="n">
+      <c r="R66" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="S65" s="8" t="inlineStr">
+      <c r="S66" s="8" t="inlineStr">
         <is>
           <t>1+0</t>
         </is>
       </c>
-      <c r="T65" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="U65" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="V65" s="8" t="n">
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="U66" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="V66" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="W65" s="8" t="inlineStr">
+      <c r="W66" s="8" t="inlineStr">
         <is>
           <t>HAPA</t>
         </is>
       </c>
-      <c r="X65" s="8" t="n"/>
-      <c r="Y65" s="8" t="n"/>
-      <c r="Z65" s="8" t="n"/>
-      <c r="AA65" s="8" t="inlineStr">
+      <c r="X66" s="8" t="n"/>
+      <c r="Y66" s="8" t="n"/>
+      <c r="Z66" s="8" t="n"/>
+      <c r="AA66" s="8" t="inlineStr">
         <is>
           <t>PPSP(2)</t>
         </is>
       </c>
-      <c r="AB65" s="8" t="n"/>
-      <c r="AC65" s="8" t="inlineStr">
+      <c r="AB66" s="8" t="n"/>
+      <c r="AC66" s="8" t="inlineStr">
         <is>
           <t>NMG[CE]</t>
         </is>
       </c>
-      <c r="AD65" s="9" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="14" t="n"/>
-      <c r="B66" s="15" t="n"/>
-      <c r="C66" s="15" t="n"/>
-      <c r="D66" s="15" t="n"/>
-      <c r="E66" s="15" t="n"/>
-      <c r="F66" s="15" t="n"/>
-      <c r="G66" s="15" t="n"/>
-      <c r="H66" s="16" t="n"/>
-      <c r="I66" s="16" t="n"/>
-      <c r="J66" s="16" t="inlineStr">
+      <c r="AD66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="14" t="n"/>
+      <c r="B67" s="15" t="n"/>
+      <c r="C67" s="15" t="n"/>
+      <c r="D67" s="15" t="n"/>
+      <c r="E67" s="15" t="n"/>
+      <c r="F67" s="15" t="n"/>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="16" t="n"/>
+      <c r="I67" s="16" t="n"/>
+      <c r="J67" s="16" t="inlineStr">
         <is>
           <t>EOLD</t>
         </is>
       </c>
-      <c r="K66" s="16" t="n"/>
-      <c r="L66" s="16" t="inlineStr">
+      <c r="K67" s="16" t="n"/>
+      <c r="L67" s="16" t="inlineStr">
         <is>
           <t>ICDW</t>
         </is>
       </c>
-      <c r="M66" s="16" t="n"/>
-      <c r="N66" s="16" t="n"/>
-      <c r="O66" s="16" t="n"/>
-      <c r="P66" s="15" t="n"/>
-      <c r="Q66" s="15" t="n"/>
-      <c r="R66" s="15" t="n"/>
-      <c r="S66" s="15" t="n"/>
-      <c r="T66" s="15" t="n"/>
-      <c r="U66" s="15" t="n"/>
-      <c r="V66" s="15" t="n"/>
-      <c r="W66" s="16" t="n"/>
-      <c r="X66" s="16" t="n"/>
-      <c r="Y66" s="16" t="n"/>
-      <c r="Z66" s="16" t="n"/>
-      <c r="AA66" s="16" t="n"/>
-      <c r="AB66" s="16" t="n"/>
-      <c r="AC66" s="16" t="n"/>
-      <c r="AD66" s="17" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="6" t="inlineStr">
+      <c r="M67" s="16" t="n"/>
+      <c r="N67" s="16" t="n"/>
+      <c r="O67" s="16" t="n"/>
+      <c r="P67" s="15" t="n"/>
+      <c r="Q67" s="15" t="n"/>
+      <c r="R67" s="15" t="n"/>
+      <c r="S67" s="15" t="n"/>
+      <c r="T67" s="15" t="n"/>
+      <c r="U67" s="15" t="n"/>
+      <c r="V67" s="15" t="n"/>
+      <c r="W67" s="16" t="n"/>
+      <c r="X67" s="16" t="n"/>
+      <c r="Y67" s="16" t="n"/>
+      <c r="Z67" s="16" t="n"/>
+      <c r="AA67" s="16" t="n"/>
+      <c r="AB67" s="16" t="n"/>
+      <c r="AC67" s="16" t="n"/>
+      <c r="AD67" s="17" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
         <is>
           <t>MPR</t>
         </is>
       </c>
-      <c r="B67" s="7" t="inlineStr">
+      <c r="B68" s="7" t="inlineStr">
         <is>
           <t>9/10</t>
         </is>
       </c>
-      <c r="C67" s="8" t="n">
+      <c r="C68" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="8" t="inlineStr">
+      <c r="D68" s="8" t="inlineStr">
         <is>
           <t>5+0</t>
         </is>
       </c>
-      <c r="E67" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="F67" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="G67" s="8" t="n">
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="G68" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H67" s="8" t="inlineStr">
+      <c r="H68" s="8" t="inlineStr">
         <is>
           <t>UNGU(2)</t>
         </is>
       </c>
-      <c r="I67" s="8" t="n"/>
-      <c r="J67" s="8" t="n"/>
-      <c r="K67" s="8" t="n"/>
-      <c r="L67" s="8" t="inlineStr">
+      <c r="I68" s="8" t="n"/>
+      <c r="J68" s="8" t="n"/>
+      <c r="K68" s="8" t="n"/>
+      <c r="L68" s="8" t="inlineStr">
         <is>
           <t>CMLK</t>
         </is>
       </c>
-      <c r="M67" s="8" t="n"/>
-      <c r="N67" s="8" t="inlineStr">
+      <c r="M68" s="8" t="n"/>
+      <c r="N68" s="8" t="inlineStr">
         <is>
           <t>BCACBM[NDV]</t>
         </is>
       </c>
-      <c r="O67" s="8" t="n"/>
-      <c r="P67" s="7" t="inlineStr">
+      <c r="O68" s="8" t="n"/>
+      <c r="P68" s="7" t="inlineStr">
         <is>
           <t>MPR</t>
         </is>
       </c>
-      <c r="Q67" s="7" t="inlineStr">
+      <c r="Q68" s="7" t="inlineStr">
         <is>
           <t>12/13</t>
         </is>
       </c>
-      <c r="R67" s="8" t="n">
+      <c r="R68" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="S67" s="8" t="inlineStr">
+      <c r="S68" s="8" t="inlineStr">
         <is>
           <t>0+2</t>
         </is>
       </c>
-      <c r="T67" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="U67" s="8" t="inlineStr">
+      <c r="T68" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="U68" s="8" t="inlineStr">
         <is>
           <t>0+2</t>
         </is>
       </c>
-      <c r="V67" s="8" t="n">
+      <c r="V68" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="W67" s="8" t="n"/>
-      <c r="X67" s="8" t="n"/>
-      <c r="Y67" s="8" t="n"/>
-      <c r="Z67" s="8" t="n"/>
-      <c r="AA67" s="8" t="inlineStr">
+      <c r="W68" s="8" t="n"/>
+      <c r="X68" s="8" t="n"/>
+      <c r="Y68" s="8" t="n"/>
+      <c r="Z68" s="8" t="n"/>
+      <c r="AA68" s="8" t="inlineStr">
         <is>
           <t>ICDG</t>
         </is>
       </c>
-      <c r="AB67" s="8" t="n"/>
-      <c r="AC67" s="8" t="n"/>
-      <c r="AD67" s="9" t="inlineStr">
+      <c r="AB68" s="8" t="n"/>
+      <c r="AC68" s="8" t="n"/>
+      <c r="AD68" s="9" t="inlineStr">
         <is>
           <t>BRN</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="10" t="n"/>
-      <c r="B68" s="11" t="n"/>
-      <c r="C68" s="11" t="n"/>
-      <c r="D68" s="11" t="n"/>
-      <c r="E68" s="11" t="n"/>
-      <c r="F68" s="11" t="n"/>
-      <c r="G68" s="11" t="n"/>
-      <c r="H68" s="12" t="inlineStr">
-        <is>
-          <t>SLI</t>
-        </is>
-      </c>
-      <c r="I68" s="12" t="n"/>
-      <c r="J68" s="12" t="n"/>
-      <c r="K68" s="12" t="n"/>
-      <c r="L68" s="12" t="inlineStr">
-        <is>
-          <t>ICDW</t>
-        </is>
-      </c>
-      <c r="M68" s="12" t="n"/>
-      <c r="N68" s="12" t="n"/>
-      <c r="O68" s="12" t="n"/>
-      <c r="P68" s="11" t="n"/>
-      <c r="Q68" s="11" t="n"/>
-      <c r="R68" s="11" t="n"/>
-      <c r="S68" s="11" t="n"/>
-      <c r="T68" s="11" t="n"/>
-      <c r="U68" s="11" t="n"/>
-      <c r="V68" s="11" t="n"/>
-      <c r="W68" s="12" t="n"/>
-      <c r="X68" s="12" t="n"/>
-      <c r="Y68" s="12" t="n"/>
-      <c r="Z68" s="12" t="n"/>
-      <c r="AA68" s="12" t="inlineStr">
-        <is>
-          <t>CGPT</t>
-        </is>
-      </c>
-      <c r="AB68" s="12" t="n"/>
-      <c r="AC68" s="12" t="n"/>
-      <c r="AD68" s="13" t="inlineStr">
-        <is>
-          <t>BCN-2</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4766,7 @@
       <c r="G69" s="11" t="n"/>
       <c r="H69" s="12" t="inlineStr">
         <is>
-          <t>MKU</t>
+          <t>SLI</t>
         </is>
       </c>
       <c r="I69" s="12" t="n"/>
@@ -4742,7 +4774,7 @@
       <c r="K69" s="12" t="n"/>
       <c r="L69" s="12" t="inlineStr">
         <is>
-          <t>JNPT</t>
+          <t>ICDW</t>
         </is>
       </c>
       <c r="M69" s="12" t="n"/>
@@ -4761,14 +4793,14 @@
       <c r="Z69" s="12" t="n"/>
       <c r="AA69" s="12" t="inlineStr">
         <is>
-          <t>CCMP(2)</t>
+          <t>CGPT</t>
         </is>
       </c>
       <c r="AB69" s="12" t="n"/>
       <c r="AC69" s="12" t="n"/>
       <c r="AD69" s="13" t="inlineStr">
         <is>
-          <t>BTPN-2</t>
+          <t>BCN-2</t>
         </is>
       </c>
     </row>
@@ -4782,13 +4814,17 @@
       <c r="G70" s="11" t="n"/>
       <c r="H70" s="12" t="inlineStr">
         <is>
-          <t>CBF</t>
+          <t>MKU</t>
         </is>
       </c>
       <c r="I70" s="12" t="n"/>
       <c r="J70" s="12" t="n"/>
       <c r="K70" s="12" t="n"/>
-      <c r="L70" s="12" t="n"/>
+      <c r="L70" s="12" t="inlineStr">
+        <is>
+          <t>JNPT</t>
+        </is>
+      </c>
       <c r="M70" s="12" t="n"/>
       <c r="N70" s="12" t="n"/>
       <c r="O70" s="12" t="n"/>
@@ -4805,743 +4841,776 @@
       <c r="Z70" s="12" t="n"/>
       <c r="AA70" s="12" t="inlineStr">
         <is>
-          <t>CGMV(2)</t>
+          <t>CCMP(2)</t>
         </is>
       </c>
       <c r="AB70" s="12" t="n"/>
       <c r="AC70" s="12" t="n"/>
-      <c r="AD70" s="13" t="n"/>
+      <c r="AD70" s="13" t="inlineStr">
+        <is>
+          <t>BTPN-2</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="n"/>
-      <c r="B71" s="15" t="n"/>
-      <c r="C71" s="15" t="n"/>
-      <c r="D71" s="15" t="n"/>
-      <c r="E71" s="15" t="n"/>
-      <c r="F71" s="15" t="n"/>
-      <c r="G71" s="15" t="n"/>
-      <c r="H71" s="16" t="n"/>
-      <c r="I71" s="16" t="n"/>
-      <c r="J71" s="16" t="n"/>
-      <c r="K71" s="16" t="n"/>
-      <c r="L71" s="16" t="n"/>
-      <c r="M71" s="16" t="n"/>
-      <c r="N71" s="16" t="n"/>
-      <c r="O71" s="16" t="n"/>
-      <c r="P71" s="15" t="n"/>
-      <c r="Q71" s="15" t="n"/>
-      <c r="R71" s="15" t="n"/>
-      <c r="S71" s="15" t="n"/>
-      <c r="T71" s="15" t="n"/>
-      <c r="U71" s="15" t="n"/>
-      <c r="V71" s="15" t="n"/>
-      <c r="W71" s="16" t="n"/>
-      <c r="X71" s="16" t="n"/>
-      <c r="Y71" s="16" t="n"/>
-      <c r="Z71" s="16" t="n"/>
-      <c r="AA71" s="16" t="inlineStr">
+      <c r="A71" s="10" t="n"/>
+      <c r="B71" s="11" t="n"/>
+      <c r="C71" s="11" t="n"/>
+      <c r="D71" s="11" t="n"/>
+      <c r="E71" s="11" t="n"/>
+      <c r="F71" s="11" t="n"/>
+      <c r="G71" s="11" t="n"/>
+      <c r="H71" s="12" t="inlineStr">
+        <is>
+          <t>CBF</t>
+        </is>
+      </c>
+      <c r="I71" s="12" t="n"/>
+      <c r="J71" s="12" t="n"/>
+      <c r="K71" s="12" t="n"/>
+      <c r="L71" s="12" t="n"/>
+      <c r="M71" s="12" t="n"/>
+      <c r="N71" s="12" t="n"/>
+      <c r="O71" s="12" t="n"/>
+      <c r="P71" s="11" t="n"/>
+      <c r="Q71" s="11" t="n"/>
+      <c r="R71" s="11" t="n"/>
+      <c r="S71" s="11" t="n"/>
+      <c r="T71" s="11" t="n"/>
+      <c r="U71" s="11" t="n"/>
+      <c r="V71" s="11" t="n"/>
+      <c r="W71" s="12" t="n"/>
+      <c r="X71" s="12" t="n"/>
+      <c r="Y71" s="12" t="n"/>
+      <c r="Z71" s="12" t="n"/>
+      <c r="AA71" s="12" t="inlineStr">
+        <is>
+          <t>CGMV(2)</t>
+        </is>
+      </c>
+      <c r="AB71" s="12" t="n"/>
+      <c r="AC71" s="12" t="n"/>
+      <c r="AD71" s="13" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="14" t="n"/>
+      <c r="B72" s="15" t="n"/>
+      <c r="C72" s="15" t="n"/>
+      <c r="D72" s="15" t="n"/>
+      <c r="E72" s="15" t="n"/>
+      <c r="F72" s="15" t="n"/>
+      <c r="G72" s="15" t="n"/>
+      <c r="H72" s="16" t="n"/>
+      <c r="I72" s="16" t="n"/>
+      <c r="J72" s="16" t="n"/>
+      <c r="K72" s="16" t="n"/>
+      <c r="L72" s="16" t="n"/>
+      <c r="M72" s="16" t="n"/>
+      <c r="N72" s="16" t="n"/>
+      <c r="O72" s="16" t="n"/>
+      <c r="P72" s="15" t="n"/>
+      <c r="Q72" s="15" t="n"/>
+      <c r="R72" s="15" t="n"/>
+      <c r="S72" s="15" t="n"/>
+      <c r="T72" s="15" t="n"/>
+      <c r="U72" s="15" t="n"/>
+      <c r="V72" s="15" t="n"/>
+      <c r="W72" s="16" t="n"/>
+      <c r="X72" s="16" t="n"/>
+      <c r="Y72" s="16" t="n"/>
+      <c r="Z72" s="16" t="n"/>
+      <c r="AA72" s="16" t="inlineStr">
         <is>
           <t>PIDN</t>
         </is>
       </c>
-      <c r="AB71" s="16" t="n"/>
-      <c r="AC71" s="16" t="n"/>
-      <c r="AD71" s="17" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="18" t="inlineStr">
+      <c r="AB72" s="16" t="n"/>
+      <c r="AC72" s="16" t="n"/>
+      <c r="AD72" s="17" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="inlineStr">
         <is>
           <t>GTX</t>
         </is>
       </c>
-      <c r="B72" s="19" t="inlineStr">
+      <c r="B73" s="19" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="C72" s="20" t="n">
+      <c r="C73" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="20" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="E72" s="20" t="inlineStr">
+      <c r="D73" s="20" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="E73" s="20" t="inlineStr">
         <is>
           <t>1+0</t>
         </is>
       </c>
-      <c r="F72" s="20" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="G72" s="20" t="n">
+      <c r="F73" s="20" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="G73" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="H72" s="20" t="n"/>
-      <c r="I72" s="20" t="inlineStr">
+      <c r="H73" s="20" t="n"/>
+      <c r="I73" s="20" t="inlineStr">
         <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="J72" s="20" t="n"/>
-      <c r="K72" s="20" t="n"/>
-      <c r="L72" s="20" t="inlineStr">
+      <c r="J73" s="20" t="n"/>
+      <c r="K73" s="20" t="n"/>
+      <c r="L73" s="20" t="inlineStr">
         <is>
           <t>DWLP</t>
         </is>
       </c>
-      <c r="M72" s="20" t="n"/>
-      <c r="N72" s="20" t="n"/>
-      <c r="O72" s="20" t="inlineStr">
+      <c r="M73" s="20" t="n"/>
+      <c r="N73" s="20" t="n"/>
+      <c r="O73" s="20" t="inlineStr">
         <is>
           <t>SHRN</t>
         </is>
       </c>
-      <c r="P72" s="19" t="inlineStr">
+      <c r="P73" s="19" t="inlineStr">
         <is>
           <t>GTX</t>
         </is>
       </c>
-      <c r="Q72" s="19" t="inlineStr">
+      <c r="Q73" s="19" t="inlineStr">
         <is>
           <t>5/5</t>
         </is>
       </c>
-      <c r="R72" s="20" t="n">
+      <c r="R73" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="S72" s="20" t="inlineStr">
+      <c r="S73" s="20" t="inlineStr">
         <is>
           <t>2+0</t>
         </is>
       </c>
-      <c r="T72" s="20" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="U72" s="20" t="inlineStr">
+      <c r="T73" s="20" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="U73" s="20" t="inlineStr">
         <is>
           <t>2+0</t>
         </is>
       </c>
-      <c r="V72" s="20" t="n">
+      <c r="V73" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="W72" s="20" t="inlineStr">
+      <c r="W73" s="20" t="inlineStr">
         <is>
           <t>UNGU(2)</t>
         </is>
       </c>
-      <c r="X72" s="20" t="n"/>
-      <c r="Y72" s="20" t="inlineStr">
+      <c r="X73" s="20" t="n"/>
+      <c r="Y73" s="20" t="inlineStr">
         <is>
           <t>MIHK(2)</t>
         </is>
       </c>
-      <c r="Z72" s="20" t="n"/>
-      <c r="AA72" s="20" t="inlineStr">
+      <c r="Z73" s="20" t="n"/>
+      <c r="AA73" s="20" t="inlineStr">
         <is>
           <t>MKIG</t>
         </is>
       </c>
-      <c r="AB72" s="20" t="n"/>
-      <c r="AC72" s="20" t="n"/>
-      <c r="AD72" s="21" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+      <c r="AB73" s="20" t="n"/>
+      <c r="AC73" s="20" t="n"/>
+      <c r="AD73" s="21" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
         <is>
           <t>NOL</t>
         </is>
       </c>
-      <c r="B73" s="7" t="inlineStr">
+      <c r="B74" s="7" t="inlineStr">
         <is>
           <t>3/4</t>
         </is>
       </c>
-      <c r="C73" s="8" t="n">
+      <c r="C74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="8" t="inlineStr">
+      <c r="D74" s="8" t="inlineStr">
         <is>
           <t>0+1</t>
         </is>
       </c>
-      <c r="E73" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="E74" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="F74" s="8" t="inlineStr">
         <is>
           <t>0+1</t>
         </is>
       </c>
-      <c r="G73" s="8" t="n">
+      <c r="G74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H73" s="8" t="n"/>
-      <c r="I73" s="8" t="n"/>
-      <c r="J73" s="8" t="n"/>
-      <c r="K73" s="8" t="n"/>
-      <c r="L73" s="8" t="n"/>
-      <c r="M73" s="8" t="inlineStr">
+      <c r="H74" s="8" t="n"/>
+      <c r="I74" s="8" t="n"/>
+      <c r="J74" s="8" t="n"/>
+      <c r="K74" s="8" t="n"/>
+      <c r="L74" s="8" t="n"/>
+      <c r="M74" s="8" t="inlineStr">
         <is>
           <t>PNU</t>
         </is>
       </c>
-      <c r="N73" s="8" t="n"/>
-      <c r="O73" s="8" t="inlineStr">
+      <c r="N74" s="8" t="n"/>
+      <c r="O74" s="8" t="inlineStr">
         <is>
           <t>BTPN</t>
         </is>
       </c>
-      <c r="P73" s="7" t="inlineStr">
+      <c r="P74" s="7" t="inlineStr">
         <is>
           <t>NOL</t>
         </is>
       </c>
-      <c r="Q73" s="7" t="inlineStr">
+      <c r="Q74" s="7" t="inlineStr">
         <is>
           <t>6/6</t>
         </is>
       </c>
-      <c r="R73" s="8" t="n">
+      <c r="R74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="8" t="inlineStr">
+      <c r="S74" s="8" t="inlineStr">
         <is>
           <t>2+0</t>
         </is>
       </c>
-      <c r="T73" s="8" t="inlineStr">
+      <c r="T74" s="8" t="inlineStr">
         <is>
           <t>0+2</t>
         </is>
       </c>
-      <c r="U73" s="8" t="inlineStr">
+      <c r="U74" s="8" t="inlineStr">
         <is>
           <t>1+0</t>
         </is>
       </c>
-      <c r="V73" s="8" t="n">
+      <c r="V74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="W73" s="8" t="inlineStr">
+      <c r="W74" s="8" t="inlineStr">
         <is>
           <t>PBN</t>
         </is>
       </c>
-      <c r="X73" s="8" t="inlineStr">
+      <c r="X74" s="8" t="inlineStr">
         <is>
           <t>RHIH</t>
         </is>
       </c>
-      <c r="Y73" s="8" t="inlineStr">
+      <c r="Y74" s="8" t="inlineStr">
         <is>
           <t>EOLD</t>
         </is>
       </c>
-      <c r="Z73" s="8" t="n"/>
-      <c r="AA73" s="8" t="n"/>
-      <c r="AB73" s="8" t="n"/>
-      <c r="AC73" s="8" t="inlineStr">
+      <c r="Z74" s="8" t="n"/>
+      <c r="AA74" s="8" t="n"/>
+      <c r="AB74" s="8" t="n"/>
+      <c r="AC74" s="8" t="inlineStr">
         <is>
           <t>NMG[AGSA]</t>
         </is>
       </c>
-      <c r="AD73" s="9" t="inlineStr">
+      <c r="AD74" s="9" t="inlineStr">
         <is>
           <t>BOXNHL</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="14" t="n"/>
-      <c r="B74" s="15" t="n"/>
-      <c r="C74" s="15" t="n"/>
-      <c r="D74" s="15" t="n"/>
-      <c r="E74" s="15" t="n"/>
-      <c r="F74" s="15" t="n"/>
-      <c r="G74" s="15" t="n"/>
-      <c r="H74" s="16" t="n"/>
-      <c r="I74" s="16" t="n"/>
-      <c r="J74" s="16" t="n"/>
-      <c r="K74" s="16" t="n"/>
-      <c r="L74" s="16" t="n"/>
-      <c r="M74" s="16" t="n"/>
-      <c r="N74" s="16" t="n"/>
-      <c r="O74" s="16" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="14" t="n"/>
+      <c r="B75" s="15" t="n"/>
+      <c r="C75" s="15" t="n"/>
+      <c r="D75" s="15" t="n"/>
+      <c r="E75" s="15" t="n"/>
+      <c r="F75" s="15" t="n"/>
+      <c r="G75" s="15" t="n"/>
+      <c r="H75" s="16" t="n"/>
+      <c r="I75" s="16" t="n"/>
+      <c r="J75" s="16" t="n"/>
+      <c r="K75" s="16" t="n"/>
+      <c r="L75" s="16" t="n"/>
+      <c r="M75" s="16" t="n"/>
+      <c r="N75" s="16" t="n"/>
+      <c r="O75" s="16" t="inlineStr">
         <is>
           <t>BCNHL</t>
         </is>
       </c>
-      <c r="P74" s="15" t="n"/>
-      <c r="Q74" s="15" t="n"/>
-      <c r="R74" s="15" t="n"/>
-      <c r="S74" s="15" t="n"/>
-      <c r="T74" s="15" t="n"/>
-      <c r="U74" s="15" t="n"/>
-      <c r="V74" s="15" t="n"/>
-      <c r="W74" s="16" t="inlineStr">
+      <c r="P75" s="15" t="n"/>
+      <c r="Q75" s="15" t="n"/>
+      <c r="R75" s="15" t="n"/>
+      <c r="S75" s="15" t="n"/>
+      <c r="T75" s="15" t="n"/>
+      <c r="U75" s="15" t="n"/>
+      <c r="V75" s="15" t="n"/>
+      <c r="W75" s="16" t="inlineStr">
         <is>
           <t>MKU</t>
         </is>
       </c>
-      <c r="X74" s="16" t="n"/>
-      <c r="Y74" s="16" t="n"/>
-      <c r="Z74" s="16" t="n"/>
-      <c r="AA74" s="16" t="n"/>
-      <c r="AB74" s="16" t="n"/>
-      <c r="AC74" s="16" t="n"/>
-      <c r="AD74" s="17" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="6" t="inlineStr">
+      <c r="X75" s="16" t="n"/>
+      <c r="Y75" s="16" t="n"/>
+      <c r="Z75" s="16" t="n"/>
+      <c r="AA75" s="16" t="n"/>
+      <c r="AB75" s="16" t="n"/>
+      <c r="AC75" s="16" t="n"/>
+      <c r="AD75" s="17" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
         <is>
           <t>SAH</t>
         </is>
       </c>
-      <c r="B75" s="7" t="inlineStr">
+      <c r="B76" s="7" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="C75" s="8" t="n">
+      <c r="C76" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D75" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="E75" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="F75" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="G75" s="8" t="n">
+      <c r="D76" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="E76" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="F76" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="G76" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="8" t="n"/>
-      <c r="I75" s="8" t="n"/>
-      <c r="J75" s="8" t="n"/>
-      <c r="K75" s="8" t="n"/>
-      <c r="L75" s="8" t="inlineStr">
+      <c r="H76" s="8" t="n"/>
+      <c r="I76" s="8" t="n"/>
+      <c r="J76" s="8" t="n"/>
+      <c r="K76" s="8" t="n"/>
+      <c r="L76" s="8" t="inlineStr">
         <is>
           <t>CCMP</t>
         </is>
       </c>
-      <c r="M75" s="8" t="n"/>
-      <c r="N75" s="8" t="n"/>
-      <c r="O75" s="8" t="n"/>
-      <c r="P75" s="7" t="inlineStr">
+      <c r="M76" s="8" t="n"/>
+      <c r="N76" s="8" t="n"/>
+      <c r="O76" s="8" t="n"/>
+      <c r="P76" s="7" t="inlineStr">
         <is>
           <t>SAH</t>
         </is>
       </c>
-      <c r="Q75" s="7" t="inlineStr">
+      <c r="Q76" s="7" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="R75" s="8" t="n">
+      <c r="R76" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="S75" s="8" t="inlineStr">
+      <c r="S76" s="8" t="inlineStr">
         <is>
           <t>2+0</t>
         </is>
       </c>
-      <c r="T75" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="U75" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="V75" s="8" t="n">
+      <c r="T76" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="U76" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="V76" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="W75" s="8" t="inlineStr">
+      <c r="W76" s="8" t="inlineStr">
         <is>
           <t>LUR</t>
         </is>
       </c>
-      <c r="X75" s="8" t="n"/>
-      <c r="Y75" s="8" t="n"/>
-      <c r="Z75" s="8" t="n"/>
-      <c r="AA75" s="8" t="n"/>
-      <c r="AB75" s="8" t="n"/>
-      <c r="AC75" s="8" t="n"/>
-      <c r="AD75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="14" t="n"/>
-      <c r="B76" s="15" t="n"/>
-      <c r="C76" s="15" t="n"/>
-      <c r="D76" s="15" t="n"/>
-      <c r="E76" s="15" t="n"/>
-      <c r="F76" s="15" t="n"/>
-      <c r="G76" s="15" t="n"/>
-      <c r="H76" s="16" t="n"/>
-      <c r="I76" s="16" t="n"/>
-      <c r="J76" s="16" t="n"/>
-      <c r="K76" s="16" t="n"/>
-      <c r="L76" s="16" t="inlineStr">
+      <c r="X76" s="8" t="n"/>
+      <c r="Y76" s="8" t="n"/>
+      <c r="Z76" s="8" t="n"/>
+      <c r="AA76" s="8" t="n"/>
+      <c r="AB76" s="8" t="n"/>
+      <c r="AC76" s="8" t="n"/>
+      <c r="AD76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="14" t="n"/>
+      <c r="B77" s="15" t="n"/>
+      <c r="C77" s="15" t="n"/>
+      <c r="D77" s="15" t="n"/>
+      <c r="E77" s="15" t="n"/>
+      <c r="F77" s="15" t="n"/>
+      <c r="G77" s="15" t="n"/>
+      <c r="H77" s="16" t="n"/>
+      <c r="I77" s="16" t="n"/>
+      <c r="J77" s="16" t="n"/>
+      <c r="K77" s="16" t="n"/>
+      <c r="L77" s="16" t="inlineStr">
         <is>
           <t>CGMV</t>
         </is>
       </c>
-      <c r="M76" s="16" t="n"/>
-      <c r="N76" s="16" t="n"/>
-      <c r="O76" s="16" t="n"/>
-      <c r="P76" s="15" t="n"/>
-      <c r="Q76" s="15" t="n"/>
-      <c r="R76" s="15" t="n"/>
-      <c r="S76" s="15" t="n"/>
-      <c r="T76" s="15" t="n"/>
-      <c r="U76" s="15" t="n"/>
-      <c r="V76" s="15" t="n"/>
-      <c r="W76" s="16" t="inlineStr">
+      <c r="M77" s="16" t="n"/>
+      <c r="N77" s="16" t="n"/>
+      <c r="O77" s="16" t="n"/>
+      <c r="P77" s="15" t="n"/>
+      <c r="Q77" s="15" t="n"/>
+      <c r="R77" s="15" t="n"/>
+      <c r="S77" s="15" t="n"/>
+      <c r="T77" s="15" t="n"/>
+      <c r="U77" s="15" t="n"/>
+      <c r="V77" s="15" t="n"/>
+      <c r="W77" s="16" t="inlineStr">
         <is>
           <t>FCIV</t>
         </is>
       </c>
-      <c r="X76" s="16" t="n"/>
-      <c r="Y76" s="16" t="n"/>
-      <c r="Z76" s="16" t="n"/>
-      <c r="AA76" s="16" t="n"/>
-      <c r="AB76" s="16" t="n"/>
-      <c r="AC76" s="16" t="n"/>
-      <c r="AD76" s="17" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+      <c r="X77" s="16" t="n"/>
+      <c r="Y77" s="16" t="n"/>
+      <c r="Z77" s="16" t="n"/>
+      <c r="AA77" s="16" t="n"/>
+      <c r="AB77" s="16" t="n"/>
+      <c r="AC77" s="16" t="n"/>
+      <c r="AD77" s="17" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>SJN</t>
         </is>
       </c>
-      <c r="B77" s="7" t="inlineStr">
+      <c r="B78" s="7" t="inlineStr">
         <is>
           <t>11/12</t>
         </is>
       </c>
-      <c r="C77" s="8" t="n">
+      <c r="C78" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="8" t="inlineStr">
+      <c r="D78" s="8" t="inlineStr">
         <is>
           <t>0+5</t>
         </is>
       </c>
-      <c r="E77" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="E78" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="F78" s="8" t="inlineStr">
         <is>
           <t>0+2</t>
         </is>
       </c>
-      <c r="G77" s="8" t="n">
+      <c r="G78" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="H77" s="8" t="n"/>
-      <c r="I77" s="8" t="n"/>
-      <c r="J77" s="8" t="n"/>
-      <c r="K77" s="8" t="n"/>
-      <c r="L77" s="8" t="inlineStr">
+      <c r="H78" s="8" t="n"/>
+      <c r="I78" s="8" t="n"/>
+      <c r="J78" s="8" t="n"/>
+      <c r="K78" s="8" t="n"/>
+      <c r="L78" s="8" t="inlineStr">
         <is>
           <t>CGMV</t>
         </is>
       </c>
-      <c r="M77" s="8" t="n"/>
-      <c r="N77" s="8" t="inlineStr">
+      <c r="M78" s="8" t="n"/>
+      <c r="N78" s="8" t="inlineStr">
         <is>
           <t>NMG[FN]-2</t>
         </is>
       </c>
-      <c r="O77" s="8" t="inlineStr">
+      <c r="O78" s="8" t="inlineStr">
         <is>
           <t>BCN-5</t>
         </is>
       </c>
-      <c r="P77" s="7" t="inlineStr">
+      <c r="P78" s="7" t="inlineStr">
         <is>
           <t>SJN</t>
         </is>
       </c>
-      <c r="Q77" s="7" t="inlineStr">
+      <c r="Q78" s="7" t="inlineStr">
         <is>
           <t>9/10</t>
         </is>
       </c>
-      <c r="R77" s="8" t="n">
+      <c r="R78" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="S77" s="8" t="inlineStr">
+      <c r="S78" s="8" t="inlineStr">
         <is>
           <t>2+0</t>
         </is>
       </c>
-      <c r="T77" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="U77" s="8" t="inlineStr">
-        <is>
-          <t>0+0</t>
-        </is>
-      </c>
-      <c r="V77" s="8" t="n">
+      <c r="T78" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="U78" s="8" t="inlineStr">
+        <is>
+          <t>0+0</t>
+        </is>
+      </c>
+      <c r="V78" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="W77" s="8" t="inlineStr">
+      <c r="W78" s="8" t="inlineStr">
         <is>
           <t>CBF</t>
         </is>
       </c>
-      <c r="X77" s="8" t="n"/>
-      <c r="Y77" s="8" t="n"/>
-      <c r="Z77" s="8" t="n"/>
-      <c r="AA77" s="8" t="inlineStr">
+      <c r="X78" s="8" t="n"/>
+      <c r="Y78" s="8" t="n"/>
+      <c r="Z78" s="8" t="n"/>
+      <c r="AA78" s="8" t="inlineStr">
         <is>
           <t>IGCS</t>
         </is>
       </c>
-      <c r="AB77" s="8" t="n"/>
-      <c r="AC77" s="8" t="inlineStr">
+      <c r="AB78" s="8" t="n"/>
+      <c r="AC78" s="8" t="inlineStr">
         <is>
           <t>NMG[IGCS]-2</t>
         </is>
       </c>
-      <c r="AD77" s="9" t="inlineStr">
+      <c r="AD78" s="9" t="inlineStr">
         <is>
           <t>BLC</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="10" t="n"/>
-      <c r="B78" s="11" t="n"/>
-      <c r="C78" s="11" t="n"/>
-      <c r="D78" s="11" t="n"/>
-      <c r="E78" s="11" t="n"/>
-      <c r="F78" s="11" t="n"/>
-      <c r="G78" s="11" t="n"/>
-      <c r="H78" s="12" t="n"/>
-      <c r="I78" s="12" t="n"/>
-      <c r="J78" s="12" t="n"/>
-      <c r="K78" s="12" t="n"/>
-      <c r="L78" s="12" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="10" t="n"/>
+      <c r="B79" s="11" t="n"/>
+      <c r="C79" s="11" t="n"/>
+      <c r="D79" s="11" t="n"/>
+      <c r="E79" s="11" t="n"/>
+      <c r="F79" s="11" t="n"/>
+      <c r="G79" s="11" t="n"/>
+      <c r="H79" s="12" t="n"/>
+      <c r="I79" s="12" t="n"/>
+      <c r="J79" s="12" t="n"/>
+      <c r="K79" s="12" t="n"/>
+      <c r="L79" s="12" t="inlineStr">
         <is>
           <t>PIDN</t>
         </is>
       </c>
-      <c r="M78" s="12" t="n"/>
-      <c r="N78" s="12" t="n"/>
-      <c r="O78" s="12" t="inlineStr">
+      <c r="M79" s="12" t="n"/>
+      <c r="N79" s="12" t="n"/>
+      <c r="O79" s="12" t="inlineStr">
         <is>
           <t>BTPN-2</t>
         </is>
       </c>
-      <c r="P78" s="11" t="n"/>
-      <c r="Q78" s="11" t="n"/>
-      <c r="R78" s="11" t="n"/>
-      <c r="S78" s="11" t="n"/>
-      <c r="T78" s="11" t="n"/>
-      <c r="U78" s="11" t="n"/>
-      <c r="V78" s="11" t="n"/>
-      <c r="W78" s="12" t="inlineStr">
+      <c r="P79" s="11" t="n"/>
+      <c r="Q79" s="11" t="n"/>
+      <c r="R79" s="11" t="n"/>
+      <c r="S79" s="11" t="n"/>
+      <c r="T79" s="11" t="n"/>
+      <c r="U79" s="11" t="n"/>
+      <c r="V79" s="11" t="n"/>
+      <c r="W79" s="12" t="inlineStr">
         <is>
           <t>SLI</t>
         </is>
       </c>
-      <c r="X78" s="12" t="n"/>
-      <c r="Y78" s="12" t="n"/>
-      <c r="Z78" s="12" t="n"/>
-      <c r="AA78" s="12" t="inlineStr">
+      <c r="X79" s="12" t="n"/>
+      <c r="Y79" s="12" t="n"/>
+      <c r="Z79" s="12" t="n"/>
+      <c r="AA79" s="12" t="inlineStr">
         <is>
           <t>JNPT(2)</t>
         </is>
       </c>
-      <c r="AB78" s="12" t="n"/>
-      <c r="AC78" s="12" t="n"/>
-      <c r="AD78" s="13" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="14" t="n"/>
-      <c r="B79" s="15" t="n"/>
-      <c r="C79" s="15" t="n"/>
-      <c r="D79" s="15" t="n"/>
-      <c r="E79" s="15" t="n"/>
-      <c r="F79" s="15" t="n"/>
-      <c r="G79" s="15" t="n"/>
-      <c r="H79" s="16" t="n"/>
-      <c r="I79" s="16" t="n"/>
-      <c r="J79" s="16" t="n"/>
-      <c r="K79" s="16" t="n"/>
-      <c r="L79" s="16" t="n"/>
-      <c r="M79" s="16" t="n"/>
-      <c r="N79" s="16" t="n"/>
-      <c r="O79" s="16" t="n"/>
-      <c r="P79" s="15" t="n"/>
-      <c r="Q79" s="15" t="n"/>
-      <c r="R79" s="15" t="n"/>
-      <c r="S79" s="15" t="n"/>
-      <c r="T79" s="15" t="n"/>
-      <c r="U79" s="15" t="n"/>
-      <c r="V79" s="15" t="n"/>
-      <c r="W79" s="16" t="n"/>
-      <c r="X79" s="16" t="n"/>
-      <c r="Y79" s="16" t="n"/>
-      <c r="Z79" s="16" t="n"/>
-      <c r="AA79" s="16" t="inlineStr">
+      <c r="AB79" s="12" t="n"/>
+      <c r="AC79" s="12" t="n"/>
+      <c r="AD79" s="13" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="14" t="n"/>
+      <c r="B80" s="15" t="n"/>
+      <c r="C80" s="15" t="n"/>
+      <c r="D80" s="15" t="n"/>
+      <c r="E80" s="15" t="n"/>
+      <c r="F80" s="15" t="n"/>
+      <c r="G80" s="15" t="n"/>
+      <c r="H80" s="16" t="n"/>
+      <c r="I80" s="16" t="n"/>
+      <c r="J80" s="16" t="n"/>
+      <c r="K80" s="16" t="n"/>
+      <c r="L80" s="16" t="n"/>
+      <c r="M80" s="16" t="n"/>
+      <c r="N80" s="16" t="n"/>
+      <c r="O80" s="16" t="n"/>
+      <c r="P80" s="15" t="n"/>
+      <c r="Q80" s="15" t="n"/>
+      <c r="R80" s="15" t="n"/>
+      <c r="S80" s="15" t="n"/>
+      <c r="T80" s="15" t="n"/>
+      <c r="U80" s="15" t="n"/>
+      <c r="V80" s="15" t="n"/>
+      <c r="W80" s="16" t="n"/>
+      <c r="X80" s="16" t="n"/>
+      <c r="Y80" s="16" t="n"/>
+      <c r="Z80" s="16" t="n"/>
+      <c r="AA80" s="16" t="inlineStr">
         <is>
           <t>ICDW</t>
         </is>
       </c>
-      <c r="AB79" s="16" t="n"/>
-      <c r="AC79" s="16" t="n"/>
-      <c r="AD79" s="17" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="18" t="inlineStr">
+      <c r="AB80" s="16" t="n"/>
+      <c r="AC80" s="16" t="n"/>
+      <c r="AD80" s="17" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="inlineStr">
         <is>
           <t>GRAND TOTAL</t>
         </is>
       </c>
-      <c r="B80" s="19" t="inlineStr">
+      <c r="B81" s="19" t="inlineStr">
         <is>
           <t>172/188</t>
         </is>
       </c>
-      <c r="C80" s="22" t="n">
+      <c r="C81" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="D80" s="22" t="inlineStr">
+      <c r="D81" s="22" t="inlineStr">
         <is>
           <t>37+7</t>
         </is>
       </c>
-      <c r="E80" s="22" t="inlineStr">
+      <c r="E81" s="22" t="inlineStr">
         <is>
           <t>17+9</t>
         </is>
       </c>
-      <c r="F80" s="22" t="inlineStr">
+      <c r="F81" s="22" t="inlineStr">
         <is>
           <t>10+4</t>
         </is>
       </c>
-      <c r="G80" s="22" t="n">
+      <c r="G81" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="H80" s="22" t="n"/>
-      <c r="I80" s="22" t="n"/>
-      <c r="J80" s="22" t="n"/>
-      <c r="K80" s="22" t="n"/>
-      <c r="L80" s="22" t="n"/>
-      <c r="M80" s="22" t="n"/>
-      <c r="N80" s="22" t="n"/>
-      <c r="O80" s="22" t="n"/>
-      <c r="P80" s="19" t="inlineStr">
+      <c r="H81" s="22" t="n"/>
+      <c r="I81" s="22" t="n"/>
+      <c r="J81" s="22" t="n"/>
+      <c r="K81" s="22" t="n"/>
+      <c r="L81" s="22" t="n"/>
+      <c r="M81" s="22" t="n"/>
+      <c r="N81" s="22" t="n"/>
+      <c r="O81" s="22" t="n"/>
+      <c r="P81" s="19" t="inlineStr">
         <is>
           <t>GRAND TOTAL</t>
         </is>
       </c>
-      <c r="Q80" s="19" t="inlineStr">
+      <c r="Q81" s="19" t="inlineStr">
         <is>
           <t>176/193</t>
         </is>
       </c>
-      <c r="R80" s="22" t="n">
+      <c r="R81" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="S80" s="22" t="inlineStr">
+      <c r="S81" s="22" t="inlineStr">
         <is>
           <t>21+22</t>
         </is>
       </c>
-      <c r="T80" s="22" t="inlineStr">
+      <c r="T81" s="22" t="inlineStr">
         <is>
           <t>17+11</t>
         </is>
       </c>
-      <c r="U80" s="22" t="inlineStr">
+      <c r="U81" s="22" t="inlineStr">
         <is>
           <t>4+14</t>
         </is>
       </c>
-      <c r="V80" s="22" t="n">
+      <c r="V81" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="W80" s="22" t="n"/>
-      <c r="X80" s="22" t="n"/>
-      <c r="Y80" s="22" t="n"/>
-      <c r="Z80" s="22" t="n"/>
-      <c r="AA80" s="22" t="n"/>
-      <c r="AB80" s="22" t="n"/>
-      <c r="AC80" s="22" t="n"/>
-      <c r="AD80" s="23" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="inlineStr">
+      <c r="W81" s="22" t="n"/>
+      <c r="X81" s="22" t="n"/>
+      <c r="Y81" s="22" t="n"/>
+      <c r="Z81" s="22" t="n"/>
+      <c r="AA81" s="22" t="n"/>
+      <c r="AB81" s="22" t="n"/>
+      <c r="AC81" s="22" t="n"/>
+      <c r="AD81" s="23" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>STOCK</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>OB</t>
         </is>
       </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="C84" s="5" t="inlineStr">
         <is>
           <t>H/O</t>
         </is>
       </c>
-      <c r="D83" s="5" t="inlineStr">
+      <c r="D84" s="5" t="inlineStr">
         <is>
           <t>T/O</t>
         </is>
       </c>
-      <c r="E83" s="5" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>CB</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>JUMBO</t>
-        </is>
-      </c>
-      <c r="B84" s="12" t="inlineStr"/>
-      <c r="C84" s="12" t="inlineStr"/>
-      <c r="D84" s="12" t="inlineStr"/>
-      <c r="E84" s="12" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>BOXN</t>
+          <t>JUMBO</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr"/>
@@ -5552,7 +5621,7 @@
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>BTPN</t>
+          <t>BOXN</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr"/>
@@ -5563,7 +5632,7 @@
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>CONT</t>
+          <t>BTPN</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr"/>
@@ -5574,7 +5643,7 @@
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>SHRA</t>
+          <t>CONT</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr"/>
@@ -5582,56 +5651,65 @@
       <c r="D88" s="12" t="inlineStr"/>
       <c r="E88" s="12" t="inlineStr"/>
     </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>SHRA</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr"/>
+      <c r="C89" s="12" t="inlineStr"/>
+      <c r="D89" s="12" t="inlineStr"/>
+      <c r="E89" s="12" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="279">
+    <mergeCell ref="Q78:Q80"/>
     <mergeCell ref="Q13:Q16"/>
     <mergeCell ref="P35:P36"/>
-    <mergeCell ref="P67:P71"/>
-    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="S78:S80"/>
     <mergeCell ref="E30:E34"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="U74:U75"/>
     <mergeCell ref="G30:G34"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="Q73:Q74"/>
     <mergeCell ref="P19:P21"/>
     <mergeCell ref="A49:A56"/>
-    <mergeCell ref="S73:S74"/>
     <mergeCell ref="T35:T36"/>
     <mergeCell ref="R22:R24"/>
     <mergeCell ref="V35:V36"/>
+    <mergeCell ref="R68:R72"/>
     <mergeCell ref="T22:T24"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="U76:U77"/>
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="T25:T26"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="U66:U67"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="Q77:Q79"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="P68:P72"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="P49:P56"/>
+    <mergeCell ref="E76:E77"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="P30:P34"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="V67:V71"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="V68:V72"/>
     <mergeCell ref="P13:P16"/>
+    <mergeCell ref="R78:R80"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="T78:T80"/>
     <mergeCell ref="G58:G61"/>
-    <mergeCell ref="V65:V66"/>
     <mergeCell ref="S27:S29"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="T75:T76"/>
     <mergeCell ref="U27:U29"/>
     <mergeCell ref="V49:V56"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G67:G71"/>
     <mergeCell ref="P37:P42"/>
     <mergeCell ref="U58:U61"/>
     <mergeCell ref="A35:A36"/>
@@ -5640,29 +5718,34 @@
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="U35:U36"/>
     <mergeCell ref="S49:S56"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="V78:V80"/>
+    <mergeCell ref="Q76:Q77"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="Q19:Q21"/>
     <mergeCell ref="S19:S21"/>
-    <mergeCell ref="V73:V74"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="P76:P77"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="P25:P26"/>
     <mergeCell ref="E43:E46"/>
     <mergeCell ref="G43:G46"/>
     <mergeCell ref="C49:C56"/>
-    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="G68:G72"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="T37:T42"/>
+    <mergeCell ref="R74:R75"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="T74:T75"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="S68:S72"/>
+    <mergeCell ref="U68:U72"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="T5:T12"/>
+    <mergeCell ref="D68:D72"/>
     <mergeCell ref="V5:V12"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="E13:E16"/>
@@ -5676,7 +5759,7 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="D49:D56"/>
     <mergeCell ref="E62:E64"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="S13:S16"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="R49:R56"/>
@@ -5686,38 +5769,37 @@
     <mergeCell ref="E5:E12"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="B58:B61"/>
-    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="U78:U80"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="R67:R71"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="T67:T71"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="U37:U42"/>
-    <mergeCell ref="Q65:Q66"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="Q74:Q75"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C30:C34"/>
-    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="S74:S75"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="T62:T64"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="S37:S42"/>
     <mergeCell ref="V19:V21"/>
-    <mergeCell ref="F75:F76"/>
     <mergeCell ref="G5:G12"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="D37:D42"/>
-    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="E66:E67"/>
     <mergeCell ref="F30:F34"/>
+    <mergeCell ref="Q66:Q67"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="R30:R34"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="R73:R74"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="B5:B12"/>
@@ -5725,30 +5807,30 @@
     <mergeCell ref="D5:D12"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
     <mergeCell ref="V30:V34"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="P78:P80"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="R65:R66"/>
     <mergeCell ref="E58:E61"/>
     <mergeCell ref="P5:P12"/>
-    <mergeCell ref="T65:T66"/>
     <mergeCell ref="R5:R12"/>
     <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="B73:B74"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="Q43:Q46"/>
     <mergeCell ref="Q58:Q61"/>
     <mergeCell ref="S43:S46"/>
     <mergeCell ref="S58:S61"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="U67:U71"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
     <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="V74:V75"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="P17:P18"/>
+    <mergeCell ref="F66:F67"/>
     <mergeCell ref="V62:V64"/>
     <mergeCell ref="U49:U56"/>
     <mergeCell ref="T58:T61"/>
@@ -5757,13 +5839,14 @@
     <mergeCell ref="U22:U24"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="S62:S64"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="T66:T67"/>
+    <mergeCell ref="E68:E72"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="V66:V67"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R19:R21"/>
-    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="Q68:Q72"/>
     <mergeCell ref="Q62:Q64"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E49:E56"/>
@@ -5776,15 +5859,13 @@
     <mergeCell ref="V25:V26"/>
     <mergeCell ref="P43:P46"/>
     <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="F68:F72"/>
     <mergeCell ref="R43:R46"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="P77:P79"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="G78:G80"/>
     <mergeCell ref="A5:A12"/>
+    <mergeCell ref="T68:T72"/>
     <mergeCell ref="S5:S12"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="U5:U12"/>
@@ -5805,59 +5886,58 @@
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="R62:R64"/>
     <mergeCell ref="S17:S18"/>
+    <mergeCell ref="G66:G67"/>
     <mergeCell ref="P2:AD2"/>
     <mergeCell ref="U17:U18"/>
     <mergeCell ref="F49:F56"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="T19:T21"/>
     <mergeCell ref="E37:E42"/>
-    <mergeCell ref="C77:C79"/>
     <mergeCell ref="P58:P61"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="V22:V24"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A75:A76"/>
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="U75:U76"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="U25:U26"/>
-    <mergeCell ref="A77:A79"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="U19:U21"/>
     <mergeCell ref="F5:F12"/>
     <mergeCell ref="G27:G29"/>
+    <mergeCell ref="R76:R77"/>
     <mergeCell ref="R37:R42"/>
+    <mergeCell ref="T76:T77"/>
     <mergeCell ref="B37:B42"/>
+    <mergeCell ref="P66:P67"/>
     <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B65:B66"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="T30:T34"/>
-    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="R66:R67"/>
     <mergeCell ref="U43:U46"/>
     <mergeCell ref="G49:G56"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D74:D75"/>
     <mergeCell ref="F43:F46"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="U77:U79"/>
+    <mergeCell ref="P74:P75"/>
     <mergeCell ref="T43:T46"/>
-    <mergeCell ref="Q67:Q71"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="S67:S71"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="V76:V77"/>
     <mergeCell ref="U30:U34"/>
     <mergeCell ref="H3:O3"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="F37:F42"/>
     <mergeCell ref="U62:U64"/>
     <mergeCell ref="V17:V18"/>
     <mergeCell ref="Q49:Q56"/>
-    <mergeCell ref="A73:A74"/>
     <mergeCell ref="R27:R29"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="G62:G64"/>
